--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_17_20.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_17_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>322860.2001815998</v>
+        <v>320291.9999022326</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>355.8127254646764</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>338.3517755722034</v>
+        <v>338.3517755722035</v>
       </c>
       <c r="D11" t="n">
-        <v>327.7619254218788</v>
+        <v>327.7619254218789</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>85.43063889670906</v>
       </c>
       <c r="F11" t="n">
-        <v>379.9549295429073</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.350241532288866</v>
+        <v>384.0006094546494</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>267.6866481885164</v>
       </c>
       <c r="I11" t="n">
-        <v>14.65581357412179</v>
+        <v>14.65581357412185</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.26664558937168</v>
+        <v>82.26664558937173</v>
       </c>
       <c r="T11" t="n">
         <v>176.996853940816</v>
       </c>
       <c r="U11" t="n">
-        <v>224.0740557600978</v>
+        <v>224.0740557600979</v>
       </c>
       <c r="V11" t="n">
-        <v>300.8311422713307</v>
+        <v>300.8311422713308</v>
       </c>
       <c r="W11" t="n">
         <v>322.3198525186089</v>
@@ -1436,7 +1436,7 @@
         <v>342.8099844796649</v>
       </c>
       <c r="Y11" t="n">
-        <v>359.3168224572494</v>
+        <v>359.3168224572495</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>152.9108639831331</v>
+        <v>152.9108639831332</v>
       </c>
       <c r="C13" t="n">
-        <v>140.3257048998236</v>
+        <v>107.0916416866327</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>121.6943568194083</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>119.5128464477651</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>139.104692060224</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>117.8338987155166</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01103647124316</v>
+        <v>62.01103647124323</v>
       </c>
       <c r="S13" t="n">
-        <v>162.8479091326377</v>
+        <v>162.8479091326378</v>
       </c>
       <c r="T13" t="n">
-        <v>192.627833077365</v>
+        <v>192.6278330773651</v>
       </c>
       <c r="U13" t="n">
-        <v>210.3252712850518</v>
+        <v>259.2907220068088</v>
       </c>
       <c r="V13" t="n">
-        <v>225.2165271250238</v>
+        <v>225.2165271250239</v>
       </c>
       <c r="W13" t="n">
-        <v>259.6018821377868</v>
+        <v>259.6018821377869</v>
       </c>
       <c r="X13" t="n">
-        <v>198.788539190233</v>
+        <v>198.7885391902331</v>
       </c>
       <c r="Y13" t="n">
-        <v>191.6635371532906</v>
+        <v>191.6635371532907</v>
       </c>
     </row>
     <row r="14">
@@ -1604,19 +1604,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>355.8127254646765</v>
       </c>
       <c r="C14" t="n">
         <v>338.3517755722035</v>
       </c>
       <c r="D14" t="n">
-        <v>327.7619254218789</v>
+        <v>57.37983885391054</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>379.9549295429073</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>384.0006094546494</v>
@@ -1625,7 +1625,7 @@
         <v>267.6866481885164</v>
       </c>
       <c r="I14" t="n">
-        <v>14.65581357412185</v>
+        <v>14.65581357412188</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26664558937172</v>
+        <v>82.26664558937176</v>
       </c>
       <c r="T14" t="n">
-        <v>176.996853940816</v>
+        <v>176.9968539408161</v>
       </c>
       <c r="U14" t="n">
-        <v>224.0740557600978</v>
+        <v>224.0740557600979</v>
       </c>
       <c r="V14" t="n">
         <v>300.8311422713308</v>
@@ -1670,7 +1670,7 @@
         <v>322.3198525186089</v>
       </c>
       <c r="X14" t="n">
-        <v>48.28569383346454</v>
+        <v>342.8099844796649</v>
       </c>
       <c r="Y14" t="n">
         <v>359.3168224572495</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1765,25 +1765,25 @@
         <v>152.9108639831332</v>
       </c>
       <c r="C16" t="n">
-        <v>140.3257048998237</v>
+        <v>140.3257048998238</v>
       </c>
       <c r="D16" t="n">
-        <v>121.6943568194082</v>
+        <v>121.6943568194083</v>
       </c>
       <c r="E16" t="n">
-        <v>119.512846447765</v>
+        <v>9.185127645592894</v>
       </c>
       <c r="F16" t="n">
-        <v>118.4999318241271</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>139.1046920602242</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43130421103399</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01103647124322</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>162.8479091326378</v>
@@ -1828,10 +1828,10 @@
         <v>259.6018821377869</v>
       </c>
       <c r="X16" t="n">
-        <v>169.2867770951716</v>
+        <v>198.7885391902331</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>191.6635371532907</v>
       </c>
     </row>
     <row r="17">
@@ -1844,22 +1844,22 @@
         <v>308.8375888460839</v>
       </c>
       <c r="C17" t="n">
-        <v>291.3766389536108</v>
+        <v>291.376638953611</v>
       </c>
       <c r="D17" t="n">
-        <v>280.7867888032862</v>
+        <v>280.7867888032863</v>
       </c>
       <c r="E17" t="n">
-        <v>105.0172908271739</v>
+        <v>308.0341172548651</v>
       </c>
       <c r="F17" t="n">
-        <v>332.9797929243147</v>
+        <v>332.9797929243148</v>
       </c>
       <c r="G17" t="n">
-        <v>337.0254728360567</v>
+        <v>3.986929086141885</v>
       </c>
       <c r="H17" t="n">
-        <v>220.7115115699237</v>
+        <v>220.7115115699238</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29150897077909</v>
+        <v>35.29150897077918</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>130.0217173222235</v>
       </c>
       <c r="U17" t="n">
-        <v>177.0989191415052</v>
+        <v>177.0989191415053</v>
       </c>
       <c r="V17" t="n">
-        <v>253.8560056527382</v>
+        <v>253.8560056527383</v>
       </c>
       <c r="W17" t="n">
-        <v>275.3447159000163</v>
+        <v>275.3447159000164</v>
       </c>
       <c r="X17" t="n">
-        <v>295.8348478610723</v>
+        <v>295.8348478610724</v>
       </c>
       <c r="Y17" t="n">
-        <v>312.3416858386569</v>
+        <v>312.341685838657</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>105.9357273645406</v>
+        <v>105.9357273645407</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35056828123111</v>
+        <v>93.3505682812312</v>
       </c>
       <c r="D19" t="n">
-        <v>74.71922020081563</v>
+        <v>74.71922020081573</v>
       </c>
       <c r="E19" t="n">
-        <v>72.53770982917244</v>
+        <v>72.53770982917254</v>
       </c>
       <c r="F19" t="n">
-        <v>71.52479520553452</v>
+        <v>71.52479520553462</v>
       </c>
       <c r="G19" t="n">
-        <v>92.1295554416315</v>
+        <v>92.1295554416316</v>
       </c>
       <c r="H19" t="n">
-        <v>70.85876209692405</v>
+        <v>70.85876209692415</v>
       </c>
       <c r="I19" t="n">
-        <v>22.45616759244137</v>
+        <v>22.45616759244145</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.0358998526506</v>
+        <v>15.03589985265069</v>
       </c>
       <c r="S19" t="n">
-        <v>115.8727725140452</v>
+        <v>178.2879804958505</v>
       </c>
       <c r="T19" t="n">
-        <v>145.6526964587725</v>
+        <v>145.6526964587726</v>
       </c>
       <c r="U19" t="n">
-        <v>212.3155853882161</v>
+        <v>212.3155853882162</v>
       </c>
       <c r="V19" t="n">
-        <v>178.2413905064313</v>
+        <v>178.2413905064314</v>
       </c>
       <c r="W19" t="n">
-        <v>275.0419535010008</v>
+        <v>212.6267455191944</v>
       </c>
       <c r="X19" t="n">
-        <v>151.8134025716404</v>
+        <v>151.8134025716405</v>
       </c>
       <c r="Y19" t="n">
-        <v>144.6884005346981</v>
+        <v>144.6884005346982</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>251.1437609961869</v>
+        <v>308.8375888460839</v>
       </c>
       <c r="C20" t="n">
-        <v>291.3766389536108</v>
+        <v>291.376638953611</v>
       </c>
       <c r="D20" t="n">
-        <v>280.7867888032862</v>
+        <v>280.7867888032863</v>
       </c>
       <c r="E20" t="n">
         <v>308.0341172548651</v>
       </c>
       <c r="F20" t="n">
-        <v>332.9797929243147</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>337.0254728360567</v>
+        <v>337.0254728360568</v>
       </c>
       <c r="H20" t="n">
-        <v>220.7115115699237</v>
+        <v>220.7115115699238</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29150897077909</v>
+        <v>35.29150897077922</v>
       </c>
       <c r="T20" t="n">
-        <v>130.0217173222234</v>
+        <v>130.0217173222235</v>
       </c>
       <c r="U20" t="n">
-        <v>177.0989191415052</v>
+        <v>177.0989191415053</v>
       </c>
       <c r="V20" t="n">
-        <v>253.8560056527382</v>
+        <v>253.797254827136</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>275.3447159000164</v>
       </c>
       <c r="X20" t="n">
-        <v>295.8348478610723</v>
+        <v>295.8348478610724</v>
       </c>
       <c r="Y20" t="n">
-        <v>312.3416858386569</v>
+        <v>312.341685838657</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.9357273645406</v>
+        <v>105.9357273645407</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35056828123111</v>
+        <v>93.3505682812312</v>
       </c>
       <c r="D22" t="n">
-        <v>74.71922020081563</v>
+        <v>74.71922020081573</v>
       </c>
       <c r="E22" t="n">
-        <v>72.53770982917244</v>
+        <v>72.53770982917254</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52479520553452</v>
+        <v>71.52479520553462</v>
       </c>
       <c r="G22" t="n">
-        <v>92.1295554416315</v>
+        <v>92.1295554416316</v>
       </c>
       <c r="H22" t="n">
-        <v>70.85876209692405</v>
+        <v>70.85876209692415</v>
       </c>
       <c r="I22" t="n">
-        <v>22.45616759244137</v>
+        <v>22.45616759244148</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.0358998526506</v>
+        <v>15.03589985265072</v>
       </c>
       <c r="S22" t="n">
-        <v>115.8727725140452</v>
+        <v>178.2879804958496</v>
       </c>
       <c r="T22" t="n">
-        <v>208.0679044405788</v>
+        <v>145.6526964587726</v>
       </c>
       <c r="U22" t="n">
-        <v>212.3155853882161</v>
+        <v>212.3155853882162</v>
       </c>
       <c r="V22" t="n">
-        <v>178.2413905064313</v>
+        <v>178.2413905064314</v>
       </c>
       <c r="W22" t="n">
-        <v>212.6267455191943</v>
+        <v>212.6267455191944</v>
       </c>
       <c r="X22" t="n">
-        <v>151.8134025716404</v>
+        <v>151.8134025716405</v>
       </c>
       <c r="Y22" t="n">
-        <v>144.6884005346981</v>
+        <v>144.6884005346982</v>
       </c>
     </row>
     <row r="23">
@@ -2318,22 +2318,22 @@
         <v>308.8375888460839</v>
       </c>
       <c r="C23" t="n">
-        <v>291.3766389536108</v>
+        <v>291.376638953611</v>
       </c>
       <c r="D23" t="n">
-        <v>280.7867888032862</v>
+        <v>280.7867888032863</v>
       </c>
       <c r="E23" t="n">
         <v>308.0341172548651</v>
       </c>
       <c r="F23" t="n">
-        <v>332.9797929243147</v>
+        <v>332.9797929243148</v>
       </c>
       <c r="G23" t="n">
-        <v>337.0254728360567</v>
+        <v>337.0254728360568</v>
       </c>
       <c r="H23" t="n">
-        <v>220.7115115699237</v>
+        <v>220.7115115699238</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29150897077911</v>
+        <v>35.2915089707792</v>
       </c>
       <c r="T23" t="n">
-        <v>130.0217173222234</v>
+        <v>130.0217173222235</v>
       </c>
       <c r="U23" t="n">
-        <v>177.0989191415052</v>
+        <v>177.0989191415053</v>
       </c>
       <c r="V23" t="n">
-        <v>253.8560056527382</v>
+        <v>253.8560056527383</v>
       </c>
       <c r="W23" t="n">
-        <v>275.3447159000163</v>
+        <v>275.3447159000164</v>
       </c>
       <c r="X23" t="n">
-        <v>295.8348478610723</v>
+        <v>295.8348478610724</v>
       </c>
       <c r="Y23" t="n">
-        <v>312.3416858386569</v>
+        <v>312.341685838657</v>
       </c>
     </row>
     <row r="24">
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>105.9357273645406</v>
+        <v>105.9357273645407</v>
       </c>
       <c r="C25" t="n">
-        <v>155.7657762630368</v>
+        <v>93.3505682812312</v>
       </c>
       <c r="D25" t="n">
-        <v>74.71922020081563</v>
+        <v>74.71922020081573</v>
       </c>
       <c r="E25" t="n">
-        <v>72.53770982917244</v>
+        <v>72.53770982917254</v>
       </c>
       <c r="F25" t="n">
-        <v>71.52479520553452</v>
+        <v>71.52479520553462</v>
       </c>
       <c r="G25" t="n">
-        <v>92.1295554416315</v>
+        <v>92.1295554416316</v>
       </c>
       <c r="H25" t="n">
-        <v>70.85876209692405</v>
+        <v>70.85876209692415</v>
       </c>
       <c r="I25" t="n">
-        <v>22.45616759244138</v>
+        <v>22.45616759244147</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.03589985265062</v>
+        <v>77.45110783445541</v>
       </c>
       <c r="S25" t="n">
-        <v>115.8727725140452</v>
+        <v>115.8727725140453</v>
       </c>
       <c r="T25" t="n">
-        <v>145.6526964587725</v>
+        <v>145.6526964587726</v>
       </c>
       <c r="U25" t="n">
-        <v>212.3155853882161</v>
+        <v>212.3155853882162</v>
       </c>
       <c r="V25" t="n">
-        <v>178.2413905064313</v>
+        <v>178.2413905064314</v>
       </c>
       <c r="W25" t="n">
-        <v>212.6267455191943</v>
+        <v>212.6267455191944</v>
       </c>
       <c r="X25" t="n">
-        <v>151.8134025716404</v>
+        <v>151.8134025716405</v>
       </c>
       <c r="Y25" t="n">
-        <v>144.6884005346981</v>
+        <v>144.6884005346982</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2731,7 +2731,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145478</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2968,7 +2968,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145478</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3032,16 +3032,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E32" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F32" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G32" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H32" t="n">
         <v>247.6326277687279</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3089,10 +3089,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W32" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X32" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y32" t="n">
         <v>339.262802037461</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3187,22 +3187,22 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D34" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
         <v>49.37728379124552</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958327</v>
       </c>
       <c r="T35" t="n">
         <v>156.9428335210276</v>
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3430,16 +3430,16 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G37" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I37" t="n">
         <v>49.37728379124554</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958324</v>
       </c>
       <c r="T38" t="n">
         <v>156.9428335210276</v>
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S39" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T39" t="n">
         <v>190.7165703189231</v>
@@ -3667,19 +3667,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G40" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T41" t="n">
         <v>156.9428335210276</v>
@@ -3837,7 +3837,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247752</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3904,19 +3904,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G43" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T44" t="n">
         <v>156.9428335210276</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247751</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4153,7 +4153,7 @@
         <v>97.7798782957282</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1139.314829203295</v>
+        <v>1498.72162260196</v>
       </c>
       <c r="C11" t="n">
-        <v>797.5453589283422</v>
+        <v>1156.952152327007</v>
       </c>
       <c r="D11" t="n">
-        <v>466.4727069870505</v>
+        <v>825.8795003857153</v>
       </c>
       <c r="E11" t="n">
-        <v>466.4727069870505</v>
+        <v>739.5859257425749</v>
       </c>
       <c r="F11" t="n">
-        <v>82.67984886290174</v>
+        <v>739.5859257425749</v>
       </c>
       <c r="G11" t="n">
-        <v>81.31596852725595</v>
+        <v>351.7065222530301</v>
       </c>
       <c r="H11" t="n">
-        <v>81.31596852725595</v>
+        <v>81.315968527256</v>
       </c>
       <c r="I11" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S11" t="n">
-        <v>3242.508199801724</v>
+        <v>3242.508199801726</v>
       </c>
       <c r="T11" t="n">
-        <v>3063.723498851405</v>
+        <v>3063.723498851406</v>
       </c>
       <c r="U11" t="n">
-        <v>2837.3860687907</v>
+        <v>2837.386068790702</v>
       </c>
       <c r="V11" t="n">
-        <v>2533.516228112588</v>
+        <v>2533.51622811259</v>
       </c>
       <c r="W11" t="n">
-        <v>2207.940619507932</v>
+        <v>2207.940619507935</v>
       </c>
       <c r="X11" t="n">
-        <v>1861.667907912311</v>
+        <v>1861.667907912313</v>
       </c>
       <c r="Y11" t="n">
-        <v>1498.721622601958</v>
+        <v>1498.72162260196</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811072</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999803</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387291</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332735</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601586</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
         <v>160.1893859228006</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031477</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501175</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>467.7891827711372</v>
+        <v>418.3291315370379</v>
       </c>
       <c r="C13" t="n">
-        <v>326.0460465086891</v>
+        <v>310.1557560959949</v>
       </c>
       <c r="D13" t="n">
-        <v>326.0460465086891</v>
+        <v>187.2321633491179</v>
       </c>
       <c r="E13" t="n">
-        <v>326.0460465086891</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F13" t="n">
-        <v>326.0460465086891</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G13" t="n">
-        <v>185.5362565488668</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>138.2866539159351</v>
+        <v>138.286653915935</v>
       </c>
       <c r="K13" t="n">
         <v>368.9257419016275</v>
       </c>
       <c r="L13" t="n">
-        <v>712.1374453869397</v>
+        <v>712.1374453869396</v>
       </c>
       <c r="M13" t="n">
-        <v>1082.946396023305</v>
+        <v>1082.946396023304</v>
       </c>
       <c r="N13" t="n">
         <v>1451.006677765985</v>
@@ -5224,25 +5224,25 @@
         <v>2077.872377806008</v>
       </c>
       <c r="S13" t="n">
-        <v>1913.379540298293</v>
+        <v>1913.379540298292</v>
       </c>
       <c r="T13" t="n">
-        <v>1718.805971533278</v>
+        <v>1718.805971533277</v>
       </c>
       <c r="U13" t="n">
-        <v>1506.356202558478</v>
+        <v>1456.896151324379</v>
       </c>
       <c r="V13" t="n">
-        <v>1278.86476101805</v>
+        <v>1229.404709783951</v>
       </c>
       <c r="W13" t="n">
-        <v>1016.640637646548</v>
+        <v>967.180586412449</v>
       </c>
       <c r="X13" t="n">
-        <v>815.8441334139895</v>
+        <v>766.3840821798904</v>
       </c>
       <c r="Y13" t="n">
-        <v>622.2446009359182</v>
+        <v>572.7845497018189</v>
       </c>
     </row>
     <row r="14">
@@ -5252,16 +5252,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1796.220906082968</v>
+        <v>1139.314829203297</v>
       </c>
       <c r="C14" t="n">
-        <v>1454.451435808016</v>
+        <v>797.5453589283434</v>
       </c>
       <c r="D14" t="n">
-        <v>1123.378783866724</v>
+        <v>739.585925742575</v>
       </c>
       <c r="E14" t="n">
-        <v>1123.378783866724</v>
+        <v>739.585925742575</v>
       </c>
       <c r="F14" t="n">
         <v>739.585925742575</v>
@@ -5270,58 +5270,58 @@
         <v>351.7065222530301</v>
       </c>
       <c r="H14" t="n">
-        <v>81.31596852725599</v>
+        <v>81.31596852725605</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3242.508199801724</v>
+        <v>3242.508199801725</v>
       </c>
       <c r="T14" t="n">
-        <v>3063.723498851404</v>
+        <v>3063.723498851406</v>
       </c>
       <c r="U14" t="n">
-        <v>2837.386068790699</v>
+        <v>2837.386068790702</v>
       </c>
       <c r="V14" t="n">
-        <v>2533.516228112587</v>
+        <v>2533.516228112589</v>
       </c>
       <c r="W14" t="n">
-        <v>2207.940619507932</v>
+        <v>2207.940619507934</v>
       </c>
       <c r="X14" t="n">
-        <v>2159.167191393321</v>
+        <v>1861.667907912313</v>
       </c>
       <c r="Y14" t="n">
-        <v>1796.220906082968</v>
+        <v>1498.72162260196</v>
       </c>
     </row>
     <row r="15">
@@ -5331,43 +5331,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
         <v>2096.912393410638</v>
@@ -5388,7 +5388,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5397,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>641.7284237070905</v>
+        <v>480.9665421140514</v>
       </c>
       <c r="C16" t="n">
-        <v>499.9852874446424</v>
+        <v>339.2234058516032</v>
       </c>
       <c r="D16" t="n">
-        <v>377.0616946977653</v>
+        <v>216.2998131047261</v>
       </c>
       <c r="E16" t="n">
-        <v>256.341647780831</v>
+        <v>207.0219063920058</v>
       </c>
       <c r="F16" t="n">
-        <v>136.6447469483793</v>
+        <v>207.0219063920058</v>
       </c>
       <c r="G16" t="n">
-        <v>136.6447469483793</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H16" t="n">
-        <v>136.6447469483793</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
         <v>138.286653915935</v>
@@ -5443,7 +5443,7 @@
         <v>712.1374453869396</v>
       </c>
       <c r="M16" t="n">
-        <v>1082.946396023305</v>
+        <v>1082.946396023304</v>
       </c>
       <c r="N16" t="n">
         <v>1451.006677765985</v>
@@ -5458,28 +5458,28 @@
         <v>2140.509788383021</v>
       </c>
       <c r="R16" t="n">
-        <v>2077.872377806008</v>
+        <v>2140.509788383021</v>
       </c>
       <c r="S16" t="n">
-        <v>1913.379540298293</v>
+        <v>1976.016950875306</v>
       </c>
       <c r="T16" t="n">
-        <v>1718.805971533277</v>
+        <v>1781.44338211029</v>
       </c>
       <c r="U16" t="n">
-        <v>1456.896151324379</v>
+        <v>1519.533561901393</v>
       </c>
       <c r="V16" t="n">
-        <v>1229.404709783951</v>
+        <v>1292.042120360964</v>
       </c>
       <c r="W16" t="n">
-        <v>967.1805864124487</v>
+        <v>1029.817996989462</v>
       </c>
       <c r="X16" t="n">
-        <v>796.1838418718716</v>
+        <v>829.0214927569039</v>
       </c>
       <c r="Y16" t="n">
-        <v>796.1838418718716</v>
+        <v>635.4219602788324</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1650.246960790129</v>
+        <v>1518.911892787884</v>
       </c>
       <c r="C17" t="n">
-        <v>1355.927123463249</v>
+        <v>1224.592055461004</v>
       </c>
       <c r="D17" t="n">
-        <v>1072.304104470031</v>
+        <v>940.969036467785</v>
       </c>
       <c r="E17" t="n">
-        <v>966.2260329274311</v>
+        <v>629.8234634830727</v>
       </c>
       <c r="F17" t="n">
-        <v>629.8828077513556</v>
+        <v>293.4802383069971</v>
       </c>
       <c r="G17" t="n">
-        <v>289.4530372098842</v>
+        <v>289.4530372098843</v>
       </c>
       <c r="H17" t="n">
         <v>66.51211643218343</v>
@@ -5513,25 +5513,25 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
         <v>3266.588755052369</v>
@@ -5540,25 +5540,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3289.957832749799</v>
+        <v>3289.957832749798</v>
       </c>
       <c r="T17" t="n">
-        <v>3289.957832749799</v>
+        <v>3158.622764747553</v>
       </c>
       <c r="U17" t="n">
-        <v>3111.070035637167</v>
+        <v>2979.734967634921</v>
       </c>
       <c r="V17" t="n">
-        <v>2854.649827907128</v>
+        <v>2723.314759904883</v>
       </c>
       <c r="W17" t="n">
-        <v>2576.523852250546</v>
+        <v>2445.188784248301</v>
       </c>
       <c r="X17" t="n">
-        <v>2277.700773602998</v>
+        <v>2146.365705600753</v>
       </c>
       <c r="Y17" t="n">
-        <v>1962.204121240718</v>
+        <v>1830.869053238473</v>
       </c>
     </row>
     <row r="18">
@@ -5568,40 +5568,40 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811077</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999807</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387296</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.918960533274</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601591</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064531</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N18" t="n">
         <v>1685.951113992583</v>
@@ -5622,22 +5622,22 @@
         <v>2435.471302619336</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>569.1149231470831</v>
+        <v>569.1149231470838</v>
       </c>
       <c r="C19" t="n">
-        <v>474.8214198327082</v>
+        <v>474.8214198327088</v>
       </c>
       <c r="D19" t="n">
-        <v>399.3474600339046</v>
+        <v>399.347460033905</v>
       </c>
       <c r="E19" t="n">
-        <v>326.0770460650435</v>
+        <v>326.0770460650439</v>
       </c>
       <c r="F19" t="n">
-        <v>253.8297781806652</v>
+        <v>253.8297781806655</v>
       </c>
       <c r="G19" t="n">
-        <v>160.7696211689162</v>
+        <v>160.7696211689164</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19511400030603</v>
+        <v>89.19511400030612</v>
       </c>
       <c r="I19" t="n">
         <v>66.51211643218343</v>
@@ -5674,16 +5674,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N19" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O19" t="n">
         <v>1617.076751502319</v>
@@ -5698,25 +5698,25 @@
         <v>1912.106770459553</v>
       </c>
       <c r="S19" t="n">
-        <v>1795.063565899911</v>
+        <v>1732.017901271825</v>
       </c>
       <c r="T19" t="n">
-        <v>1647.939630082969</v>
+        <v>1584.893965454883</v>
       </c>
       <c r="U19" t="n">
-        <v>1433.479442822145</v>
+        <v>1370.433778194059</v>
       </c>
       <c r="V19" t="n">
-        <v>1253.43763422979</v>
+        <v>1190.391969601704</v>
       </c>
       <c r="W19" t="n">
-        <v>975.6174791782742</v>
+        <v>975.6174791782751</v>
       </c>
       <c r="X19" t="n">
-        <v>822.2706078937888</v>
+        <v>822.2706078937897</v>
       </c>
       <c r="Y19" t="n">
-        <v>676.1207083637908</v>
+        <v>676.1207083637916</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1855.314462232241</v>
+        <v>1518.971237056166</v>
       </c>
       <c r="C20" t="n">
-        <v>1560.994624905361</v>
+        <v>1224.651399729286</v>
       </c>
       <c r="D20" t="n">
-        <v>1277.371605912143</v>
+        <v>941.0283807360679</v>
       </c>
       <c r="E20" t="n">
-        <v>966.2260329274309</v>
+        <v>629.8828077513558</v>
       </c>
       <c r="F20" t="n">
-        <v>629.8828077513554</v>
+        <v>629.8828077513558</v>
       </c>
       <c r="G20" t="n">
-        <v>289.4530372098842</v>
+        <v>289.4530372098843</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810543</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3289.9578327498</v>
+        <v>3289.957832749797</v>
       </c>
       <c r="T20" t="n">
-        <v>3158.622764747554</v>
+        <v>3158.622764747552</v>
       </c>
       <c r="U20" t="n">
-        <v>2979.734967634922</v>
+        <v>2979.734967634919</v>
       </c>
       <c r="V20" t="n">
-        <v>2723.314759904884</v>
+        <v>2723.374104173166</v>
       </c>
       <c r="W20" t="n">
-        <v>2723.314759904884</v>
+        <v>2445.248128516584</v>
       </c>
       <c r="X20" t="n">
-        <v>2424.491681257336</v>
+        <v>2146.425049869036</v>
       </c>
       <c r="Y20" t="n">
-        <v>2108.995028895056</v>
+        <v>1830.928397506756</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811072</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999803</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387291</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332735</v>
       </c>
       <c r="F21" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601586</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927785</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064549</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="22">
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>569.1149231470831</v>
+        <v>569.1149231470838</v>
       </c>
       <c r="C22" t="n">
-        <v>474.8214198327082</v>
+        <v>474.8214198327088</v>
       </c>
       <c r="D22" t="n">
-        <v>399.3474600339046</v>
+        <v>399.347460033905</v>
       </c>
       <c r="E22" t="n">
-        <v>326.0770460650435</v>
+        <v>326.0770460650439</v>
       </c>
       <c r="F22" t="n">
-        <v>253.8297781806652</v>
+        <v>253.8297781806655</v>
       </c>
       <c r="G22" t="n">
-        <v>160.7696211689162</v>
+        <v>160.7696211689164</v>
       </c>
       <c r="H22" t="n">
-        <v>89.19511400030603</v>
+        <v>89.19511400030612</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L22" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N22" t="n">
         <v>1317.747152581905</v>
@@ -5929,31 +5929,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R22" t="n">
-        <v>1912.106770459553</v>
+        <v>1912.106770459552</v>
       </c>
       <c r="S22" t="n">
-        <v>1795.063565899911</v>
+        <v>1732.017901271825</v>
       </c>
       <c r="T22" t="n">
-        <v>1584.893965454882</v>
+        <v>1584.893965454883</v>
       </c>
       <c r="U22" t="n">
-        <v>1370.433778194058</v>
+        <v>1370.433778194059</v>
       </c>
       <c r="V22" t="n">
-        <v>1190.391969601703</v>
+        <v>1190.391969601704</v>
       </c>
       <c r="W22" t="n">
-        <v>975.6174791782742</v>
+        <v>975.6174791782751</v>
       </c>
       <c r="X22" t="n">
-        <v>822.2706078937888</v>
+        <v>822.2706078937897</v>
       </c>
       <c r="Y22" t="n">
-        <v>676.1207083637908</v>
+        <v>676.1207083637916</v>
       </c>
     </row>
     <row r="23">
@@ -5972,55 +5972,55 @@
         <v>1284.236964472232</v>
       </c>
       <c r="E23" t="n">
-        <v>973.09139148752</v>
+        <v>973.0913914875197</v>
       </c>
       <c r="F23" t="n">
-        <v>636.7481663114445</v>
+        <v>636.748166311444</v>
       </c>
       <c r="G23" t="n">
-        <v>296.3183957699731</v>
+        <v>296.3183957699732</v>
       </c>
       <c r="H23" t="n">
-        <v>73.37747499227237</v>
+        <v>73.37747499227238</v>
       </c>
       <c r="I23" t="n">
-        <v>73.37747499227237</v>
+        <v>73.37747499227238</v>
       </c>
       <c r="J23" t="n">
-        <v>429.6622549716508</v>
+        <v>262.2566059512978</v>
       </c>
       <c r="K23" t="n">
-        <v>763.4816286614971</v>
+        <v>596.0759796411444</v>
       </c>
       <c r="L23" t="n">
-        <v>1214.515841909906</v>
+        <v>1047.110192889553</v>
       </c>
       <c r="M23" t="n">
-        <v>1748.04774658183</v>
+        <v>1580.642097561478</v>
       </c>
       <c r="N23" t="n">
-        <v>2294.826563640612</v>
+        <v>2253.631643311313</v>
       </c>
       <c r="O23" t="n">
-        <v>2797.799034519949</v>
+        <v>2756.60411419065</v>
       </c>
       <c r="P23" t="n">
-        <v>3192.573400877127</v>
+        <v>3151.378480547829</v>
       </c>
       <c r="Q23" t="n">
-        <v>3544.797427382563</v>
+        <v>3609.856683056817</v>
       </c>
       <c r="R23" t="n">
-        <v>3668.873749613618</v>
+        <v>3668.873749613619</v>
       </c>
       <c r="S23" t="n">
-        <v>3633.225760754245</v>
+        <v>3633.225760754246</v>
       </c>
       <c r="T23" t="n">
-        <v>3501.890692751999</v>
+        <v>3501.890692752</v>
       </c>
       <c r="U23" t="n">
-        <v>3323.002895639369</v>
+        <v>3323.002895639368</v>
       </c>
       <c r="V23" t="n">
         <v>3066.58268790933</v>
@@ -6060,25 +6060,25 @@
         <v>182.8866609528669</v>
       </c>
       <c r="H24" t="n">
-        <v>92.38476659073444</v>
+        <v>92.38476659073442</v>
       </c>
       <c r="I24" t="n">
-        <v>73.37747499227237</v>
+        <v>73.37747499227238</v>
       </c>
       <c r="J24" t="n">
-        <v>167.0547444828896</v>
+        <v>167.0547444828897</v>
       </c>
       <c r="K24" t="n">
-        <v>405.3189434632367</v>
+        <v>405.3189434632368</v>
       </c>
       <c r="L24" t="n">
-        <v>772.017103775902</v>
+        <v>772.0171037759022</v>
       </c>
       <c r="M24" t="n">
         <v>1219.293428998218</v>
       </c>
       <c r="N24" t="n">
-        <v>1692.816472552672</v>
+        <v>1692.816472552673</v>
       </c>
       <c r="O24" t="n">
         <v>2103.777751970727</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>639.0259463352586</v>
+        <v>575.9802817071727</v>
       </c>
       <c r="C25" t="n">
-        <v>481.6867783927972</v>
+        <v>481.6867783927978</v>
       </c>
       <c r="D25" t="n">
-        <v>406.2128185939935</v>
+        <v>406.212818593994</v>
       </c>
       <c r="E25" t="n">
-        <v>332.9424046251324</v>
+        <v>332.9424046251328</v>
       </c>
       <c r="F25" t="n">
-        <v>260.6951367407542</v>
+        <v>260.6951367407544</v>
       </c>
       <c r="G25" t="n">
-        <v>167.6349797290051</v>
+        <v>167.6349797290054</v>
       </c>
       <c r="H25" t="n">
-        <v>96.06047256039497</v>
+        <v>96.06047256039508</v>
       </c>
       <c r="I25" t="n">
-        <v>73.37747499227237</v>
+        <v>73.37747499227238</v>
       </c>
       <c r="J25" t="n">
         <v>118.5001074392079</v>
@@ -6151,10 +6151,10 @@
         <v>322.4872903880843</v>
       </c>
       <c r="L25" t="n">
-        <v>639.0470888365803</v>
+        <v>639.0470888365804</v>
       </c>
       <c r="M25" t="n">
-        <v>983.2041344361293</v>
+        <v>983.2041344361294</v>
       </c>
       <c r="N25" t="n">
         <v>1324.612511141994</v>
@@ -6163,34 +6163,34 @@
         <v>1623.942110062407</v>
       </c>
       <c r="P25" t="n">
-        <v>1856.549610496066</v>
+        <v>1856.549610496067</v>
       </c>
       <c r="Q25" t="n">
-        <v>1934.159906648581</v>
+        <v>1934.159906648582</v>
       </c>
       <c r="R25" t="n">
-        <v>1918.972129019641</v>
+        <v>1855.926464391556</v>
       </c>
       <c r="S25" t="n">
-        <v>1801.928924459999</v>
+        <v>1738.883259831914</v>
       </c>
       <c r="T25" t="n">
-        <v>1654.804988643057</v>
+        <v>1591.759324014972</v>
       </c>
       <c r="U25" t="n">
-        <v>1440.344801382233</v>
+        <v>1377.299136754148</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.302992789878</v>
+        <v>1197.257328161793</v>
       </c>
       <c r="W25" t="n">
-        <v>1045.52850236645</v>
+        <v>982.482837738364</v>
       </c>
       <c r="X25" t="n">
-        <v>892.1816310819643</v>
+        <v>829.1359664538786</v>
       </c>
       <c r="Y25" t="n">
-        <v>746.0317315519662</v>
+        <v>682.9860669238805</v>
       </c>
     </row>
     <row r="26">
@@ -6200,73 +6200,73 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467784</v>
+        <v>698.9037015467793</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J26" t="n">
-        <v>270.0260478557145</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K26" t="n">
-        <v>603.8454215455608</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L26" t="n">
-        <v>1054.879634793969</v>
+        <v>1394.992678104634</v>
       </c>
       <c r="M26" t="n">
-        <v>1662.351466305506</v>
+        <v>1928.524582776558</v>
       </c>
       <c r="N26" t="n">
-        <v>2642.103738532152</v>
+        <v>2475.303399835341</v>
       </c>
       <c r="O26" t="n">
-        <v>3145.076209411489</v>
+        <v>3355.268050164796</v>
       </c>
       <c r="P26" t="n">
-        <v>3539.850575768667</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277655</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W26" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y26" t="n">
         <v>2372.257749805548</v>
@@ -6300,16 +6300,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873066</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676538</v>
       </c>
       <c r="L27" t="n">
-        <v>779.7865456803195</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D28" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913839</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415468</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643391</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302702</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J28" t="n">
         <v>172.7749345960312</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L28" t="n">
         <v>786.3326864982171</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N28" t="n">
         <v>1564.908879308444</v>
@@ -6418,7 +6418,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V28" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W28" t="n">
         <v>1262.182746297367</v>
@@ -6427,7 +6427,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2033.1075426895</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D29" t="n">
         <v>1400.778593038484</v>
@@ -6449,52 +6449,52 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467792</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J29" t="n">
-        <v>270.0260478557145</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K29" t="n">
-        <v>603.8454215455608</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L29" t="n">
-        <v>1054.879634793969</v>
+        <v>1453.404136464984</v>
       </c>
       <c r="M29" t="n">
-        <v>1588.411539465894</v>
+        <v>1986.936041136909</v>
       </c>
       <c r="N29" t="n">
-        <v>2265.111559082035</v>
+        <v>2533.714858195691</v>
       </c>
       <c r="O29" t="n">
-        <v>3145.076209411489</v>
+        <v>3036.687329075028</v>
       </c>
       <c r="P29" t="n">
-        <v>3539.850575768667</v>
+        <v>3750.042416521974</v>
       </c>
       <c r="Q29" t="n">
-        <v>3998.328778277655</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V29" t="n">
         <v>3346.282596468334</v>
@@ -6537,16 +6537,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676538</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803195</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
@@ -6595,58 +6595,58 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257041</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H31" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973141</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982164</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N31" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O31" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P31" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q31" t="n">
-        <v>2313.97243057225</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R31" t="n">
-        <v>2271.591606277851</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S31" t="n">
-        <v>2127.355355052751</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T31" t="n">
         <v>1953.038372570351</v>
@@ -6664,7 +6664,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
         <v>1400.778593038484</v>
@@ -6686,10 +6686,10 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.903701546779</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
         <v>81.14691689668915</v>
@@ -6698,16 +6698,16 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
-        <v>270.0260478557145</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K32" t="n">
-        <v>665.7404053951334</v>
+        <v>924.7493799910142</v>
       </c>
       <c r="L32" t="n">
-        <v>1116.774618643542</v>
+        <v>1375.783593239423</v>
       </c>
       <c r="M32" t="n">
-        <v>2095.324921473371</v>
+        <v>1909.315497911347</v>
       </c>
       <c r="N32" t="n">
         <v>2642.103738532152</v>
@@ -6731,16 +6731,16 @@
         <v>3835.976694641921</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W32" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y32" t="n">
         <v>2372.257749805548</v>
@@ -6777,13 +6777,13 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873066</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676538</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803188</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257039</v>
+        <v>549.9474938257042</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913844</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H34" t="n">
         <v>131.0229611302705</v>
@@ -6856,10 +6856,10 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L34" t="n">
         <v>786.3326864982171</v>
@@ -6901,7 +6901,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519662</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2033.107542689501</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C35" t="n">
-        <v>1711.594658697163</v>
+        <v>1711.59465869716</v>
       </c>
       <c r="D35" t="n">
-        <v>1400.778593038486</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E35" t="n">
-        <v>1062.439973388315</v>
+        <v>1062.439973388312</v>
       </c>
       <c r="F35" t="n">
-        <v>698.9037015467807</v>
+        <v>698.9037015467779</v>
       </c>
       <c r="G35" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H35" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I35" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J35" t="n">
         <v>437.4316968760676</v>
       </c>
       <c r="K35" t="n">
-        <v>771.251070565914</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L35" t="n">
-        <v>1261.907203722596</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M35" t="n">
-        <v>2240.457506552425</v>
+        <v>2030.265665799117</v>
       </c>
       <c r="N35" t="n">
-        <v>2787.236323611207</v>
+        <v>2577.044482857899</v>
       </c>
       <c r="O35" t="n">
-        <v>3290.208794490544</v>
+        <v>3080.016953737236</v>
       </c>
       <c r="P35" t="n">
-        <v>3684.983160847722</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q35" t="n">
-        <v>3933.269522603404</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R35" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S35" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309625</v>
       </c>
       <c r="T35" t="n">
-        <v>3835.976694641923</v>
+        <v>3835.97669464192</v>
       </c>
       <c r="U35" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.89585086383</v>
       </c>
       <c r="V35" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W35" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146292</v>
       </c>
       <c r="X35" t="n">
-        <v>2714.947448833288</v>
+        <v>2714.947448833285</v>
       </c>
       <c r="Y35" t="n">
-        <v>2372.25774980555</v>
+        <v>2372.257749805547</v>
       </c>
     </row>
     <row r="36">
@@ -7011,16 +7011,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I36" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J36" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K36" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L36" t="n">
-        <v>779.7865456803195</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M36" t="n">
         <v>1227.062870902635</v>
@@ -7069,13 +7069,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C37" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D37" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E37" t="n">
         <v>449.4840331913842</v>
@@ -7090,19 +7090,19 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I37" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J37" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K37" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L37" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M37" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N37" t="n">
         <v>1564.908879308444</v>
@@ -7138,7 +7138,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y37" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2033.107542689501</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C38" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D38" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E38" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F38" t="n">
-        <v>698.9037015467801</v>
+        <v>698.9037015467787</v>
       </c>
       <c r="G38" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H38" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I38" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J38" t="n">
-        <v>437.4316968760676</v>
+        <v>393.2994530991685</v>
       </c>
       <c r="K38" t="n">
-        <v>771.251070565914</v>
+        <v>727.1188267890151</v>
       </c>
       <c r="L38" t="n">
-        <v>1222.285283814323</v>
+        <v>1178.153040037424</v>
       </c>
       <c r="M38" t="n">
-        <v>2030.265665799119</v>
+        <v>1711.684944709349</v>
       </c>
       <c r="N38" t="n">
-        <v>2577.044482857901</v>
+        <v>2258.463761768131</v>
       </c>
       <c r="O38" t="n">
-        <v>3080.016953737238</v>
+        <v>2761.436232647468</v>
       </c>
       <c r="P38" t="n">
-        <v>3474.791320094416</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q38" t="n">
-        <v>3933.269522603404</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R38" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S38" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T38" t="n">
-        <v>3835.976694641923</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U38" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V38" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W38" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X38" t="n">
-        <v>2714.947448833288</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y38" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="39">
@@ -7227,43 +7227,43 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456142</v>
       </c>
       <c r="C39" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644872</v>
       </c>
       <c r="D39" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E39" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977805</v>
       </c>
       <c r="F39" t="n">
         <v>327.0192030246656</v>
       </c>
       <c r="G39" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572842</v>
       </c>
       <c r="H39" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951516</v>
       </c>
       <c r="I39" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J39" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873063</v>
       </c>
       <c r="K39" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676537</v>
       </c>
       <c r="L39" t="n">
-        <v>779.7865456803195</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M39" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N39" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O39" t="n">
         <v>2111.547193875144</v>
@@ -7306,13 +7306,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C40" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D40" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E40" t="n">
         <v>449.4840331913842</v>
@@ -7327,19 +7327,19 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I40" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J40" t="n">
         <v>172.7749345960314</v>
       </c>
       <c r="K40" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L40" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M40" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N40" t="n">
         <v>1564.908879308444</v>
@@ -7375,7 +7375,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C41" t="n">
         <v>1711.594658697161</v>
@@ -7397,7 +7397,7 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F41" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467786</v>
       </c>
       <c r="G41" t="n">
         <v>331.2808843398487</v>
@@ -7418,16 +7418,16 @@
         <v>1054.87963479397</v>
       </c>
       <c r="M41" t="n">
-        <v>1776.744200383602</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N41" t="n">
-        <v>2323.523017442385</v>
+        <v>2475.30339983534</v>
       </c>
       <c r="O41" t="n">
-        <v>2826.495488321721</v>
+        <v>3355.268050164795</v>
       </c>
       <c r="P41" t="n">
-        <v>3539.850575768667</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q41" t="n">
         <v>3998.328778277655</v>
@@ -7445,7 +7445,7 @@
         <v>3629.895850863831</v>
       </c>
       <c r="V41" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W41" t="n">
         <v>3040.963574146293</v>
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>956.1786549456133</v>
+        <v>956.1786549456144</v>
       </c>
       <c r="C42" t="n">
-        <v>781.7256256644863</v>
+        <v>781.7256256644874</v>
       </c>
       <c r="D42" t="n">
-        <v>632.7912160032351</v>
+        <v>632.7912160032362</v>
       </c>
       <c r="E42" t="n">
-        <v>473.5537609977796</v>
+        <v>473.5537609977807</v>
       </c>
       <c r="F42" t="n">
-        <v>327.0192030246646</v>
+        <v>327.0192030246657</v>
       </c>
       <c r="G42" t="n">
-        <v>190.6561028572835</v>
+        <v>190.6561028572838</v>
       </c>
       <c r="H42" t="n">
-        <v>100.1542084951511</v>
+        <v>100.1542084951513</v>
       </c>
       <c r="I42" t="n">
         <v>81.14691689668915</v>
       </c>
       <c r="J42" t="n">
-        <v>174.8241863873063</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K42" t="n">
-        <v>413.0883853676534</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L42" t="n">
-        <v>779.7865456803188</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M42" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N42" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O42" t="n">
-        <v>2111.547193875143</v>
+        <v>2111.547193875144</v>
       </c>
       <c r="P42" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q42" t="n">
-        <v>2579.688342997846</v>
+        <v>2579.688342997847</v>
       </c>
       <c r="R42" t="n">
-        <v>2579.543989590361</v>
+        <v>2579.543989590362</v>
       </c>
       <c r="S42" t="n">
-        <v>2450.106103083841</v>
+        <v>2450.106103083842</v>
       </c>
       <c r="T42" t="n">
-        <v>2257.463102761697</v>
+        <v>2257.463102761698</v>
       </c>
       <c r="U42" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V42" t="n">
-        <v>1794.24314766437</v>
+        <v>1794.243147664371</v>
       </c>
       <c r="W42" t="n">
-        <v>1540.005790936168</v>
+        <v>1540.005790936169</v>
       </c>
       <c r="X42" t="n">
-        <v>1332.154290730635</v>
+        <v>1332.154290730636</v>
       </c>
       <c r="Y42" t="n">
-        <v>1124.393991965681</v>
+        <v>1124.393991965683</v>
       </c>
     </row>
     <row r="43">
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C43" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D43" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E43" t="n">
         <v>449.4840331913842</v>
       </c>
       <c r="F43" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G43" t="n">
         <v>229.7905149643394</v>
@@ -7576,7 +7576,7 @@
         <v>786.3326864982172</v>
       </c>
       <c r="M43" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N43" t="n">
         <v>1564.908879308444</v>
@@ -7612,7 +7612,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y43" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="44">
@@ -7646,22 +7646,22 @@
         <v>81.14691689668916</v>
       </c>
       <c r="J44" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K44" t="n">
-        <v>810.872990474187</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L44" t="n">
-        <v>1261.907203722596</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M44" t="n">
-        <v>2240.457506552424</v>
+        <v>1921.876785462656</v>
       </c>
       <c r="N44" t="n">
-        <v>2787.236323611206</v>
+        <v>2468.655602521438</v>
       </c>
       <c r="O44" t="n">
-        <v>3290.208794490543</v>
+        <v>2971.628073400775</v>
       </c>
       <c r="P44" t="n">
         <v>3684.983160847721</v>
@@ -7701,49 +7701,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456144</v>
       </c>
       <c r="C45" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644874</v>
       </c>
       <c r="D45" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032362</v>
       </c>
       <c r="E45" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977807</v>
       </c>
       <c r="F45" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246657</v>
       </c>
       <c r="G45" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572838</v>
       </c>
       <c r="H45" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951513</v>
       </c>
       <c r="I45" t="n">
         <v>81.14691689668916</v>
       </c>
       <c r="J45" t="n">
-        <v>174.8241863873064</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K45" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L45" t="n">
-        <v>779.7865456803188</v>
+        <v>779.786545680319</v>
       </c>
       <c r="M45" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N45" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O45" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P45" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q45" t="n">
         <v>2579.688342997847</v>
@@ -7770,7 +7770,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y45" t="n">
-        <v>1124.393991965682</v>
+        <v>1124.393991965683</v>
       </c>
     </row>
     <row r="46">
@@ -7810,19 +7810,19 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L46" t="n">
-        <v>786.3326864982166</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M46" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N46" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O46" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P46" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q46" t="n">
         <v>2313.972430572251</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>164.4450187886082</v>
+        <v>164.4450187886095</v>
       </c>
       <c r="K8" t="n">
-        <v>195.2094266592895</v>
+        <v>195.2094266592914</v>
       </c>
       <c r="L8" t="n">
-        <v>204.9000484419176</v>
+        <v>204.90004844192</v>
       </c>
       <c r="M8" t="n">
-        <v>196.001453152676</v>
+        <v>196.0014531526787</v>
       </c>
       <c r="N8" t="n">
-        <v>194.5125490740252</v>
+        <v>194.5125490740279</v>
       </c>
       <c r="O8" t="n">
-        <v>197.1426452201038</v>
+        <v>197.1426452201064</v>
       </c>
       <c r="P8" t="n">
-        <v>203.1061824561895</v>
+        <v>203.1061824561917</v>
       </c>
       <c r="Q8" t="n">
-        <v>201.1836244567216</v>
+        <v>201.1836244567233</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>116.9502528485201</v>
+        <v>116.9502528485208</v>
       </c>
       <c r="K9" t="n">
-        <v>120.9423422814151</v>
+        <v>120.9423422814164</v>
       </c>
       <c r="L9" t="n">
-        <v>115.8314587981486</v>
+        <v>115.8314587981504</v>
       </c>
       <c r="M9" t="n">
-        <v>115.6174569072868</v>
+        <v>115.6174569072889</v>
       </c>
       <c r="N9" t="n">
-        <v>104.1233201775593</v>
+        <v>104.1233201775614</v>
       </c>
       <c r="O9" t="n">
-        <v>117.696733395143</v>
+        <v>117.696733395145</v>
       </c>
       <c r="P9" t="n">
-        <v>113.9903546175952</v>
+        <v>113.9903546175968</v>
       </c>
       <c r="Q9" t="n">
-        <v>126.6229640213383</v>
+        <v>126.6229640213394</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>121.8405463218784</v>
+        <v>121.8405463218794</v>
       </c>
       <c r="M10" t="n">
-        <v>125.1725778274361</v>
+        <v>125.1725778274372</v>
       </c>
       <c r="N10" t="n">
-        <v>114.2593588466747</v>
+        <v>114.2593588466758</v>
       </c>
       <c r="O10" t="n">
-        <v>126.0552829419903</v>
+        <v>126.0552829419913</v>
       </c>
       <c r="P10" t="n">
-        <v>127.1165875773778</v>
+        <v>127.1165875773786</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>127.4855845364174</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9656,10 +9656,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>104.9875401512665</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>4.592992652874273e-13</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9878,22 +9878,22 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>343.5485285966302</v>
       </c>
       <c r="M26" t="n">
-        <v>74.68679478748709</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10115,22 +10115,22 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>402.5500016878933</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>131.2335379367258</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10349,16 +10349,16 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>62.52018570663887</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>187.8883066283053</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10589,10 +10589,10 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>40.02214132148873</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>277.2206841544136</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10604,7 +10604,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>124.5185911550038</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>277.2206841544163</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10838,7 +10838,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -11066,19 +11066,19 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>190.2350110279878</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>343.5485285966295</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>-1.06581410364015e-13</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -11294,16 +11294,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>40.02214132148788</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>336.8335818149105</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11312,7 +11312,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.10714246085645</v>
+        <v>15.10714246085647</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>355.8127254646765</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,16 +23264,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>355.0092538734576</v>
+        <v>269.5786149767486</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>379.9549295429073</v>
       </c>
       <c r="G11" t="n">
-        <v>382.6503679223604</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>267.6866481885163</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>33.23406321319106</v>
       </c>
       <c r="D13" t="n">
-        <v>121.6943568194082</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>119.512846447765</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>118.4999318241271</v>
+        <v>118.4999318241272</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>139.1046920602241</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>117.8338987155167</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43130421103393</v>
+        <v>69.431304211034</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>48.96545072175695</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23492,19 +23492,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>355.8127254646765</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>270.3820865679683</v>
       </c>
       <c r="E14" t="n">
         <v>355.0092538734577</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>379.9549295429073</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23558,7 +23558,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>294.5242906462004</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>110.3277188021722</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>118.4999318241272</v>
       </c>
       <c r="G16" t="n">
-        <v>139.1046920602241</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>117.8338987155167</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>69.43130421103402</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>62.01103647124324</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>29.5017620950614</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>191.6635371532907</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23738,13 +23738,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>203.0168264276912</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>333.0385437499149</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>130.0217173222234</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>57.69382784989693</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>332.9797929243148</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24026,10 +24026,10 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>0.05875082560229316</v>
       </c>
       <c r="W20" t="n">
-        <v>275.3447159000163</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1105153.555173425</v>
+        <v>1105153.555173426</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>922296.1891713999</v>
+        <v>922296.1891714002</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>922296.1891713998</v>
+        <v>922296.1891714</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1003533.924632448</v>
+        <v>1003533.924632447</v>
       </c>
     </row>
     <row r="9">
@@ -26314,7 +26314,7 @@
         <v>409638.1693585191</v>
       </c>
       <c r="C2" t="n">
-        <v>409638.757176582</v>
+        <v>409638.7571765819</v>
       </c>
       <c r="D2" t="n">
         <v>409645.9540416796</v>
@@ -26323,34 +26323,34 @@
         <v>364770.8567064762</v>
       </c>
       <c r="F2" t="n">
-        <v>364770.856706476</v>
+        <v>364770.8567064762</v>
       </c>
       <c r="G2" t="n">
-        <v>397265.9508908951</v>
+        <v>397265.950890895</v>
       </c>
       <c r="H2" t="n">
-        <v>397265.9508908952</v>
+        <v>397265.9508908947</v>
       </c>
       <c r="I2" t="n">
-        <v>410520.8849321417</v>
+        <v>410520.8849321416</v>
       </c>
       <c r="J2" t="n">
-        <v>410520.8849321416</v>
+        <v>410520.8849321415</v>
       </c>
       <c r="K2" t="n">
         <v>410520.8849321415</v>
       </c>
       <c r="L2" t="n">
-        <v>410520.884932141</v>
+        <v>410520.8849321415</v>
       </c>
       <c r="M2" t="n">
-        <v>410520.8849321415</v>
+        <v>410520.8849321411</v>
       </c>
       <c r="N2" t="n">
         <v>410520.8849321412</v>
       </c>
       <c r="O2" t="n">
-        <v>410520.8849321412</v>
+        <v>410520.884932141</v>
       </c>
       <c r="P2" t="n">
         <v>410520.8849321411</v>
@@ -26369,10 +26369,10 @@
         <v>3345.426898312242</v>
       </c>
       <c r="D3" t="n">
-        <v>38521.85015936565</v>
+        <v>38521.85015936239</v>
       </c>
       <c r="E3" t="n">
-        <v>1106215.9610155</v>
+        <v>1106215.961015504</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,7 +26384,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22820.53767071739</v>
+        <v>22820.53767071791</v>
       </c>
       <c r="J3" t="n">
         <v>25410.34822049033</v>
@@ -26393,7 +26393,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487411</v>
+        <v>37580.10929487405</v>
       </c>
       <c r="M3" t="n">
         <v>207188.568292073</v>
@@ -26421,43 +26421,43 @@
         <v>435241.0409526688</v>
       </c>
       <c r="D4" t="n">
-        <v>422862.857334305</v>
+        <v>422862.8573343059</v>
       </c>
       <c r="E4" t="n">
-        <v>38195.30988554748</v>
+        <v>38195.30988554739</v>
       </c>
       <c r="F4" t="n">
-        <v>38195.30988554742</v>
+        <v>38195.30988554738</v>
       </c>
       <c r="G4" t="n">
-        <v>75223.10714400183</v>
+        <v>75223.10714400175</v>
       </c>
       <c r="H4" t="n">
-        <v>75223.10714400184</v>
+        <v>75223.10714400178</v>
       </c>
       <c r="I4" t="n">
-        <v>86759.1327915719</v>
+        <v>86759.13279157178</v>
       </c>
       <c r="J4" t="n">
+        <v>82806.76150409841</v>
+      </c>
+      <c r="K4" t="n">
         <v>82806.76150409842</v>
       </c>
-      <c r="K4" t="n">
-        <v>82806.76150409844</v>
-      </c>
       <c r="L4" t="n">
-        <v>82806.76150409848</v>
+        <v>82806.76150409839</v>
       </c>
       <c r="M4" t="n">
-        <v>82806.76150409851</v>
+        <v>82806.76150409837</v>
       </c>
       <c r="N4" t="n">
-        <v>82806.7615040985</v>
+        <v>82806.76150409835</v>
       </c>
       <c r="O4" t="n">
-        <v>82806.76150409842</v>
+        <v>82806.76150409839</v>
       </c>
       <c r="P4" t="n">
-        <v>82806.76150409848</v>
+        <v>82806.76150409845</v>
       </c>
     </row>
     <row r="5">
@@ -26473,37 +26473,37 @@
         <v>33707.69021107268</v>
       </c>
       <c r="D5" t="n">
-        <v>34688.26308058926</v>
+        <v>34688.26308058917</v>
       </c>
       <c r="E5" t="n">
+        <v>76569.57187911058</v>
+      </c>
+      <c r="F5" t="n">
         <v>76569.57187911056</v>
-      </c>
-      <c r="F5" t="n">
-        <v>76569.57187911053</v>
       </c>
       <c r="G5" t="n">
         <v>80518.72463949904</v>
       </c>
       <c r="H5" t="n">
-        <v>80518.72463949904</v>
+        <v>80518.72463949901</v>
       </c>
       <c r="I5" t="n">
-        <v>85736.39714516661</v>
+        <v>85736.39714516663</v>
       </c>
       <c r="J5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="K5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="L5" t="n">
         <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
-        <v>89377.94167480613</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="N5" t="n">
-        <v>89377.94167480613</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="O5" t="n">
         <v>89377.94167480612</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-60263.31036072902</v>
+        <v>-60267.72393859713</v>
       </c>
       <c r="C6" t="n">
-        <v>-62655.40088547172</v>
+        <v>-62659.81152424958</v>
       </c>
       <c r="D6" t="n">
-        <v>-86427.01653258028</v>
+        <v>-86431.39118703018</v>
       </c>
       <c r="E6" t="n">
-        <v>-856209.9860736821</v>
+        <v>-856438.7362148139</v>
       </c>
       <c r="F6" t="n">
-        <v>250005.974941818</v>
+        <v>249777.2248006899</v>
       </c>
       <c r="G6" t="n">
-        <v>203944.0098125201</v>
+        <v>203877.7351423138</v>
       </c>
       <c r="H6" t="n">
-        <v>241524.1191073943</v>
+        <v>241457.8444371881</v>
       </c>
       <c r="I6" t="n">
-        <v>215204.8173246858</v>
+        <v>215204.8173246852</v>
       </c>
       <c r="J6" t="n">
-        <v>212925.8335327467</v>
+        <v>212925.8335327466</v>
       </c>
       <c r="K6" t="n">
         <v>238336.181753237</v>
       </c>
       <c r="L6" t="n">
-        <v>200756.0724583623</v>
+        <v>200756.0724583628</v>
       </c>
       <c r="M6" t="n">
-        <v>31147.61346116387</v>
+        <v>31147.61346116354</v>
       </c>
       <c r="N6" t="n">
-        <v>238336.1817532366</v>
+        <v>238336.1817532367</v>
       </c>
       <c r="O6" t="n">
-        <v>238336.1817532366</v>
+        <v>238336.1817532365</v>
       </c>
       <c r="P6" t="n">
         <v>238336.1817532365</v>
@@ -26692,37 +26692,37 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92111619880418</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92111619880412</v>
+        <v>26.92111619880408</v>
       </c>
       <c r="G2" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="H2" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="I2" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="J2" t="n">
         <v>46.97513661859255</v>
       </c>
       <c r="K2" t="n">
+        <v>46.97513661859255</v>
+      </c>
+      <c r="L2" t="n">
         <v>46.97513661859256</v>
       </c>
-      <c r="L2" t="n">
-        <v>46.97513661859259</v>
-      </c>
       <c r="M2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P2" t="n">
         <v>46.97513661859259</v>
@@ -26741,7 +26741,7 @@
         <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>48.65426975180097</v>
+        <v>48.65426975179717</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26750,7 +26750,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="H3" t="n">
         <v>1089.776700593298</v>
@@ -26771,7 +26771,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="N3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="O3" t="n">
         <v>1089.776700593298</v>
@@ -26796,34 +26796,34 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.401455402293</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="G4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
-        <v>917.2184374034046</v>
+        <v>917.2184374034048</v>
       </c>
       <c r="J4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="K4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="L4" t="n">
         <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="N4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="O4" t="n">
         <v>1014.336461208614</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92111619880418</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859263</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26963,22 +26963,22 @@
         <v>3.673862893242319</v>
       </c>
       <c r="D3" t="n">
-        <v>44.98040685855865</v>
+        <v>44.98040685855484</v>
       </c>
       <c r="E3" t="n">
-        <v>1041.122430841497</v>
+        <v>1041.122430841501</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-2.099495649563683e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>-7.407236585157419e-14</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,19 +27018,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.401455402293</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.81698200111146</v>
+        <v>85.81698200111214</v>
       </c>
       <c r="J4" t="n">
         <v>97.11802380520987</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402293</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.92111619880418</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.401455402293</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>337.4716642661365</v>
+        <v>337.4716642661366</v>
       </c>
       <c r="I8" t="n">
-        <v>202.9352112403303</v>
+        <v>202.9352112403309</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>137.5825701128218</v>
+        <v>137.5825701128227</v>
       </c>
       <c r="S8" t="n">
-        <v>204.5629472868718</v>
+        <v>204.5629472868722</v>
       </c>
       <c r="T8" t="n">
-        <v>222.2396322140268</v>
+        <v>222.2396322140269</v>
       </c>
       <c r="U8" t="n">
         <v>251.3300053034942</v>
@@ -27947,10 +27947,10 @@
         <v>137.2388645829898</v>
       </c>
       <c r="H9" t="n">
-        <v>111.2247206327845</v>
+        <v>111.2247206327846</v>
       </c>
       <c r="I9" t="n">
-        <v>85.79346287451284</v>
+        <v>85.79346287451311</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>93.66019412805356</v>
+        <v>93.66019412805407</v>
       </c>
       <c r="S9" t="n">
-        <v>169.7392953264899</v>
+        <v>169.7392953264901</v>
       </c>
       <c r="T9" t="n">
         <v>199.7429053561244</v>
@@ -28029,13 +28029,13 @@
         <v>161.4471089694517</v>
       </c>
       <c r="I10" t="n">
-        <v>152.8119778069475</v>
+        <v>152.8119778069477</v>
       </c>
       <c r="J10" t="n">
-        <v>87.15615952880792</v>
+        <v>87.1561595288084</v>
       </c>
       <c r="K10" t="n">
-        <v>12.07602350739078</v>
+        <v>12.07602350739158</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.81524851917244</v>
+        <v>78.81524851917301</v>
       </c>
       <c r="R10" t="n">
-        <v>173.3484074723759</v>
+        <v>173.3484074723762</v>
       </c>
       <c r="S10" t="n">
-        <v>222.4875777891984</v>
+        <v>222.4875777891986</v>
       </c>
       <c r="T10" t="n">
         <v>227.5707122678988</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92111619880418</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92111619880418</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92111619880418</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92111619880418</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92111619880418</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92111619880418</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92111619880418</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92111619880418</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92111619880418</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92111619880418</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92111619880418</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92111619880418</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92111619880418</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92111619880418</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92111619880418</v>
+        <v>26.92111619880409</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92111619880418</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92111619880418</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92111619880418</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92111619880418</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92111619880418</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92111619880418</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92111619880418</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92111619880418</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92111619880418</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92111619880418</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92111619880418</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92111619880418</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92111619880418</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92111619880418</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92111619880418</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92111619880418</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92111619880418</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92111619880418</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92111619880418</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92111619880418</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92111619880418</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92111619880418</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92111619880418</v>
+        <v>26.92111619880409</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92111619880418</v>
+        <v>26.92111619880409</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.92111619880412</v>
+        <v>26.92111619880408</v>
       </c>
       <c r="C14" t="n">
-        <v>26.92111619880412</v>
+        <v>26.92111619880408</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92111619880412</v>
+        <v>26.92111619880408</v>
       </c>
       <c r="E14" t="n">
-        <v>26.92111619880412</v>
+        <v>26.92111619880408</v>
       </c>
       <c r="F14" t="n">
-        <v>26.92111619880412</v>
+        <v>26.92111619880408</v>
       </c>
       <c r="G14" t="n">
-        <v>26.92111619880412</v>
+        <v>26.92111619880408</v>
       </c>
       <c r="H14" t="n">
-        <v>26.92111619880412</v>
+        <v>26.92111619880408</v>
       </c>
       <c r="I14" t="n">
-        <v>26.92111619880412</v>
+        <v>26.92111619880408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.92111619880412</v>
+        <v>26.92111619880408</v>
       </c>
       <c r="T14" t="n">
-        <v>26.92111619880412</v>
+        <v>26.92111619880408</v>
       </c>
       <c r="U14" t="n">
-        <v>26.92111619880412</v>
+        <v>26.92111619880408</v>
       </c>
       <c r="V14" t="n">
-        <v>26.92111619880412</v>
+        <v>26.92111619880408</v>
       </c>
       <c r="W14" t="n">
-        <v>26.92111619880412</v>
+        <v>26.92111619880408</v>
       </c>
       <c r="X14" t="n">
-        <v>26.92111619880412</v>
+        <v>26.92111619880408</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.92111619880412</v>
+        <v>26.92111619880408</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.92111619880412</v>
+        <v>26.92111619880408</v>
       </c>
       <c r="C16" t="n">
-        <v>26.92111619880412</v>
+        <v>26.92111619880408</v>
       </c>
       <c r="D16" t="n">
-        <v>26.92111619880412</v>
+        <v>26.92111619880408</v>
       </c>
       <c r="E16" t="n">
-        <v>26.92111619880412</v>
+        <v>26.92111619880408</v>
       </c>
       <c r="F16" t="n">
-        <v>26.92111619880412</v>
+        <v>26.92111619880408</v>
       </c>
       <c r="G16" t="n">
-        <v>26.92111619880412</v>
+        <v>26.92111619880408</v>
       </c>
       <c r="H16" t="n">
-        <v>26.92111619880412</v>
+        <v>26.92111619880408</v>
       </c>
       <c r="I16" t="n">
-        <v>26.92111619880412</v>
+        <v>26.92111619880408</v>
       </c>
       <c r="J16" t="n">
-        <v>26.92111619880412</v>
+        <v>26.92111619880408</v>
       </c>
       <c r="K16" t="n">
-        <v>26.92111619880412</v>
+        <v>26.92111619880408</v>
       </c>
       <c r="L16" t="n">
-        <v>26.92111619880412</v>
+        <v>26.92111619880408</v>
       </c>
       <c r="M16" t="n">
-        <v>26.92111619880412</v>
+        <v>26.92111619880408</v>
       </c>
       <c r="N16" t="n">
-        <v>26.92111619880412</v>
+        <v>26.92111619880408</v>
       </c>
       <c r="O16" t="n">
-        <v>26.92111619880412</v>
+        <v>26.92111619880408</v>
       </c>
       <c r="P16" t="n">
-        <v>26.92111619880412</v>
+        <v>26.92111619880408</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.92111619880412</v>
+        <v>26.92111619880408</v>
       </c>
       <c r="R16" t="n">
-        <v>26.92111619880412</v>
+        <v>26.92111619880408</v>
       </c>
       <c r="S16" t="n">
-        <v>26.92111619880412</v>
+        <v>26.92111619880408</v>
       </c>
       <c r="T16" t="n">
-        <v>26.92111619880412</v>
+        <v>26.92111619880408</v>
       </c>
       <c r="U16" t="n">
-        <v>26.92111619880412</v>
+        <v>26.92111619880408</v>
       </c>
       <c r="V16" t="n">
-        <v>26.92111619880412</v>
+        <v>26.92111619880408</v>
       </c>
       <c r="W16" t="n">
-        <v>26.92111619880412</v>
+        <v>26.92111619880408</v>
       </c>
       <c r="X16" t="n">
-        <v>26.92111619880412</v>
+        <v>26.92111619880408</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.92111619880412</v>
+        <v>26.92111619880408</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="C17" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="D17" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="E17" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="F17" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="G17" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="H17" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="T17" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="U17" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="V17" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="W17" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="X17" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739663</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="C19" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="D19" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="E19" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="F19" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="G19" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="H19" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="I19" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="S19" t="n">
-        <v>73.89625281739673</v>
+        <v>11.48104483559135</v>
       </c>
       <c r="T19" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="U19" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="V19" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="W19" t="n">
-        <v>11.48104483559024</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="X19" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739663</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="C20" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="D20" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="E20" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="F20" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="G20" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="H20" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="T20" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="U20" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="V20" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="W20" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="X20" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739663</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="C22" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="D22" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="E22" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="F22" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="G22" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="H22" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="I22" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="S22" t="n">
-        <v>73.89625281739673</v>
+        <v>11.48104483559226</v>
       </c>
       <c r="T22" t="n">
-        <v>11.48104483559038</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="U22" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="V22" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="W22" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="X22" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739663</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="C23" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="D23" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="E23" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="F23" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="G23" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="H23" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="T23" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="U23" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="V23" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="W23" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="X23" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739663</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="C25" t="n">
-        <v>11.48104483559104</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="D25" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="E25" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="F25" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="G25" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="H25" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="I25" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.89625281739673</v>
+        <v>11.48104483559192</v>
       </c>
       <c r="S25" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="T25" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="U25" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="V25" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="W25" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="X25" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739663</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.89625281739673</v>
+        <v>73.89625281739663</v>
       </c>
     </row>
     <row r="26">
@@ -29293,7 +29293,7 @@
         <v>46.97513661859255</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859213</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185921</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.9751366185921</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859222</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859233</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="44">
@@ -30715,7 +30715,7 @@
         <v>46.97513661859259</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30882,7 +30882,7 @@
         <v>46.97513661859259</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859205</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M46" t="n">
         <v>46.97513661859259</v>
@@ -30897,7 +30897,7 @@
         <v>46.97513661859259</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859165</v>
       </c>
       <c r="R46" t="n">
         <v>46.97513661859259</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1955950542785967</v>
+        <v>0.1955950542785814</v>
       </c>
       <c r="H8" t="n">
-        <v>2.003137849630679</v>
+        <v>2.003137849630523</v>
       </c>
       <c r="I8" t="n">
-        <v>7.540678330075607</v>
+        <v>7.540678330075018</v>
       </c>
       <c r="J8" t="n">
-        <v>16.60088573807806</v>
+        <v>16.60088573807677</v>
       </c>
       <c r="K8" t="n">
-        <v>24.88042438569106</v>
+        <v>24.88042438568912</v>
       </c>
       <c r="L8" t="n">
-        <v>30.86636652806968</v>
+        <v>30.86636652806726</v>
       </c>
       <c r="M8" t="n">
-        <v>34.34478007459667</v>
+        <v>34.34478007459398</v>
       </c>
       <c r="N8" t="n">
-        <v>34.90051452256574</v>
+        <v>34.90051452256301</v>
       </c>
       <c r="O8" t="n">
-        <v>32.95556620158294</v>
+        <v>32.95556620158036</v>
       </c>
       <c r="P8" t="n">
-        <v>28.12681329908008</v>
+        <v>28.12681329907788</v>
       </c>
       <c r="Q8" t="n">
-        <v>21.12206541772782</v>
+        <v>21.12206541772617</v>
       </c>
       <c r="R8" t="n">
-        <v>12.28654782832791</v>
+        <v>12.28654782832695</v>
       </c>
       <c r="S8" t="n">
-        <v>4.457122299373527</v>
+        <v>4.457122299373179</v>
       </c>
       <c r="T8" t="n">
-        <v>0.8562173501045575</v>
+        <v>0.8562173501044906</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01564760434228773</v>
+        <v>0.01564760434228651</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1046525802208549</v>
+        <v>0.1046525802208467</v>
       </c>
       <c r="H9" t="n">
-        <v>1.010723603711941</v>
+        <v>1.010723603711862</v>
       </c>
       <c r="I9" t="n">
-        <v>3.603169976902242</v>
+        <v>3.603169976901961</v>
       </c>
       <c r="J9" t="n">
-        <v>9.887373818146649</v>
+        <v>9.887373818145877</v>
       </c>
       <c r="K9" t="n">
-        <v>16.89909669294393</v>
+        <v>16.89909669294261</v>
       </c>
       <c r="L9" t="n">
-        <v>22.72292098172554</v>
+        <v>22.72292098172376</v>
       </c>
       <c r="M9" t="n">
-        <v>26.51657701473152</v>
+        <v>26.51657701472945</v>
       </c>
       <c r="N9" t="n">
-        <v>27.21839190577402</v>
+        <v>27.21839190577189</v>
       </c>
       <c r="O9" t="n">
-        <v>24.89951104930139</v>
+        <v>24.89951104929944</v>
       </c>
       <c r="P9" t="n">
-        <v>19.98405279673501</v>
+        <v>19.98405279673345</v>
       </c>
       <c r="Q9" t="n">
-        <v>13.35881006468317</v>
+        <v>13.35881006468212</v>
       </c>
       <c r="R9" t="n">
-        <v>6.497640024589574</v>
+        <v>6.497640024589066</v>
       </c>
       <c r="S9" t="n">
-        <v>1.943875777347896</v>
+        <v>1.943875777347744</v>
       </c>
       <c r="T9" t="n">
-        <v>0.4218233386972177</v>
+        <v>0.4218233386971847</v>
       </c>
       <c r="U9" t="n">
-        <v>0.006885038172424668</v>
+        <v>0.00688503817242413</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.08773720774914928</v>
+        <v>0.08773720774914243</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7800635379878914</v>
+        <v>0.7800635379878305</v>
       </c>
       <c r="I10" t="n">
-        <v>2.638497120310781</v>
+        <v>2.638497120310575</v>
       </c>
       <c r="J10" t="n">
-        <v>6.203020587864853</v>
+        <v>6.203020587864369</v>
       </c>
       <c r="K10" t="n">
-        <v>10.19346831849207</v>
+        <v>10.19346831849127</v>
       </c>
       <c r="L10" t="n">
-        <v>13.04412995935989</v>
+        <v>13.04412995935887</v>
       </c>
       <c r="M10" t="n">
-        <v>13.75320612016892</v>
+        <v>13.75320612016784</v>
       </c>
       <c r="N10" t="n">
-        <v>13.42618561855846</v>
+        <v>13.42618561855741</v>
       </c>
       <c r="O10" t="n">
-        <v>12.40125550985249</v>
+        <v>12.40125550985152</v>
       </c>
       <c r="P10" t="n">
-        <v>10.61141647176983</v>
+        <v>10.611416471769</v>
       </c>
       <c r="Q10" t="n">
-        <v>7.346794732521946</v>
+        <v>7.346794732521372</v>
       </c>
       <c r="R10" t="n">
-        <v>3.944983904793566</v>
+        <v>3.944983904793257</v>
       </c>
       <c r="S10" t="n">
-        <v>1.52902024777381</v>
+        <v>1.52902024777369</v>
       </c>
       <c r="T10" t="n">
-        <v>0.3748771603827286</v>
+        <v>0.3748771603826994</v>
       </c>
       <c r="U10" t="n">
-        <v>0.004785665877226329</v>
+        <v>0.004785665877225956</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32233,40 +32233,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T17" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837917</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32385,43 +32385,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I29" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138802</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837931</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138802</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T38" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H39" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K40" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P40" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q40" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,13 +35565,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49953281187038</v>
+        <v>72.49953281187031</v>
       </c>
       <c r="K13" t="n">
         <v>232.9687757431237</v>
       </c>
       <c r="L13" t="n">
-        <v>346.6784883690023</v>
+        <v>346.6784883690022</v>
       </c>
       <c r="M13" t="n">
         <v>374.5544955922879</v>
@@ -35586,7 +35586,7 @@
         <v>261.8781873439145</v>
       </c>
       <c r="Q13" t="n">
-        <v>105.3153547366978</v>
+        <v>105.3153547366977</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597746</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49953281187032</v>
+        <v>72.49953281187031</v>
       </c>
       <c r="K16" t="n">
         <v>232.9687757431236</v>
@@ -35817,7 +35817,7 @@
         <v>371.7780623663442</v>
       </c>
       <c r="O16" t="n">
-        <v>329.2742464214438</v>
+        <v>329.2742464214439</v>
       </c>
       <c r="P16" t="n">
         <v>261.8781873439145</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004584</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O19" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>679.7874199493289</v>
       </c>
       <c r="O23" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>355.781844954986</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36528,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923319</v>
+        <v>799.1386429889624</v>
       </c>
       <c r="M26" t="n">
-        <v>613.6079106177136</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359772</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,25 +36750,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O28" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3693751564862</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923319</v>
+        <v>858.1401160802254</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>683.5353733496371</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509644</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L30" t="n">
-        <v>370.402182134006</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,25 +36987,25 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M31" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3693751564862</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>399.7114722620393</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129113</v>
+        <v>740.1901420412167</v>
       </c>
       <c r="O32" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597723</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004598</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37236,7 +37236,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412323</v>
@@ -37245,7 +37245,7 @@
         <v>281.932207763703</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3693751564858</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,25 +37306,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>495.6122557138207</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>988.434649323059</v>
+        <v>816.1417999846403</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.402182134006</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K37" t="n">
         <v>253.0227961629121</v>
@@ -37470,19 +37470,19 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M37" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N37" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O37" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P37" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564858</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>315.3055921237165</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M38" t="n">
-        <v>816.1417999846428</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K40" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887903</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O40" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P40" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37786,19 +37786,19 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>729.1561268582145</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>895.850364009541</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
         <v>59.61319854222478</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
@@ -37944,13 +37944,13 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M43" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120761</v>
       </c>
       <c r="N43" t="n">
         <v>391.8320827861327</v>
       </c>
       <c r="O43" t="n">
-        <v>349.3282668412321</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
         <v>281.932207763703</v>
@@ -38014,28 +38014,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>377.2134278768883</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>988.434649323059</v>
+        <v>875.7546976451373</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
         <v>125.3296184152072</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,19 +38172,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887901</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M46" t="n">
         <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
@@ -38193,7 +38193,7 @@
         <v>281.932207763703</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564853</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
